--- a/Dataset/Folds/Fold_3/Excel/110.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/110.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="472">
   <si>
     <t>Doi</t>
   </si>
@@ -1493,6 +1493,152 @@
   </si>
   <si>
     <t>[Marco%Cattaneo%NULL%1,                           Elena M.%Bertinato%NULL%1,                           Simone%Birocchi%NULL%1,                           Carolina%Brizio%NULL%1,                           Daniele%Malavolta%NULL%1,                           Marco%Manzoni%NULL%1,                           Gesualdo%Muscarella%NULL%1,                           Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                            Xavier%Delabranche%NULL%3,                            Xavier%Delabranche%NULL%0,                            François%Severac%NULL%3,                            François%Severac%NULL%0,                            Julie%Helms%NULL%0,                            Julie%Helms%NULL%0,                            Coralie%Pauzet%NULL%1,                            Olivier%Collange%NULL%1,                            Françis%Schneider%NULL%1,                            Aissam%Labani%NULL%2,                            Aissam%Labani%NULL%0,                            Pascal%Bilbault%NULL%1,                            Sébastien%Moliere%NULL%2,                            Sébastien%Moliere%NULL%0,                            Pierre%Leyendecker%NULL%1,                            Catherine%Roy%NULL%2,                            Catherine%Roy%NULL%0,                            Mickaël%Ohana%mickael.ohana@gmail.com%3,                            Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                            Julien%Behr%NULL%2,                            Julien%Behr%NULL%0,                            Paul%Calame%NULL%1,                            Sébastien%Aubry%NULL%1,                            Eric%Delabrousse%NULL%2,                            Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                            Caroline%Bouzad%NULL%2,                            Caroline%Bouzad%NULL%0,                            Evelyne%Peroux%NULL%1,                            Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                            Rebecca S.%Karp Leaf%NULL%1,                            Walter H.%Dzik%NULL%1,                            Jonathan C.T.%Carlson%NULL%1,                            Annemarie E.%Fogerty%NULL%1,                            Anem%Waheed%NULL%1,                            Katayoon%Goodarzi%NULL%1,                            Pavan K.%Bendapudi%NULL%1,                            Larissa%Bornikova%NULL%1,                            Shruti%Gupta%NULL%1,                            David E.%Leaf%NULL%1,                            David J.%Kuter%NULL%1,                            Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                            Maxime%Leclerc%NULL%1,                            Camille%Chochois%NULL%1,                            Jean‐Michel%Monsallier%NULL%1,                            Michel%Ramakers%NULL%1,                            Malika%Auvray%NULL%1,                            Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                            Charles%Tacquard%NULL%1,                            François%Severac%NULL%0,                            Ian%Leonard-Lorant%NULL%1,                            Mickaël%Ohana%NULL%0,                            Xavier%Delabranche%NULL%0,                            Hamid%Merdji%NULL%1,                            Raphaël%Clere-Jehl%NULL%1,                            Malika%Schenck%NULL%1,                            Florence%Fagot Gandet%NULL%1,                            Samira%Fafi-Kremer%NULL%0,                            Vincent%Castelain%NULL%1,                            Francis%Schneider%NULL%0,                            Lélia%Grunebaum%NULL%1,                            Eduardo%Anglés-Cano%NULL%1,                            Laurent%Sattler%NULL%1,                            Paul-Michel%Mertes%NULL%0,                            Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                            E.%Cervilla-Muñoz%NULL%1,                            L.%Ordieres-Ortega%NULL%1,                            A.%Parra-Virto%NULL%1,                            M.%Toledano-Macías%NULL%1,                            N.%Toledo-Samaniego%NULL%1,                            A.%García-García%NULL%1,                            I.%García-Fernández-Bravo%NULL%1,                            Z.%Ji%NULL%1,                            J.%de-Miguel-Diez%NULL%1,                            L.A.%Álvarez-Sala-Walther%NULL%1,                            J.%del-Toro-Cervera%NULL%1,                            F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                            Shuo%Chen%NULL%1,                            Xiunan%Li%NULL%1,                            Shi%Liu%NULL%1,                            Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                            Michiel%Coppens%NULL%1,                            Thijs F.%van Haaps%NULL%1,                            Merijn%Foppen%NULL%1,                            Alexander P.%Vlaar%NULL%1,                            Marcella C.A.%Müller%NULL%1,                            Catherine C.S.%Bouman%NULL%1,                            Ludo F.M.%Beenen%NULL%1,                            Ruud S.%Kootte%NULL%1,                            Jarom%Heijmans%NULL%1,                            Loek P.%Smits%NULL%1,                            Peter I.%Bonta%NULL%1,                            Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                            Hippolyte%Monnier%NULL%1,                            Ines%Saab%NULL%1,                            Mickael%Tordjman%NULL%1,                            Hendy%Abdoul%NULL%1,                            Laure%Fournier%NULL%1,                            Olivier%Sanchez%NULL%1,                            Christine%Lorut%NULL%1,                            Guillaume%Chassagnon%NULL%1,                            Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                            Elena M.%Bertinato%NULL%1,                            Simone%Birocchi%NULL%1,                            Carolina%Brizio%NULL%1,                            Daniele%Malavolta%NULL%1,                            Marco%Manzoni%NULL%1,                            Gesualdo%Muscarella%NULL%1,                            Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%1,                             Xavier%Delabranche%NULL%3,                             Xavier%Delabranche%NULL%0,                             François%Severac%NULL%3,                             François%Severac%NULL%0,                             Julie%Helms%NULL%0,                             Julie%Helms%NULL%0,                             Coralie%Pauzet%NULL%1,                             Olivier%Collange%NULL%1,                             Françis%Schneider%NULL%1,                             Aissam%Labani%NULL%2,                             Aissam%Labani%NULL%0,                             Pascal%Bilbault%NULL%1,                             Sébastien%Moliere%NULL%2,                             Sébastien%Moliere%NULL%0,                             Pierre%Leyendecker%NULL%1,                             Catherine%Roy%NULL%2,                             Catherine%Roy%NULL%0,                             Mickaël%Ohana%mickael.ohana@gmail.com%3,                             Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%1,                             Julien%Behr%NULL%2,                             Julien%Behr%NULL%0,                             Paul%Calame%NULL%1,                             Sébastien%Aubry%NULL%1,                             Eric%Delabrousse%NULL%2,                             Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%1,                             Caroline%Bouzad%NULL%2,                             Caroline%Bouzad%NULL%0,                             Evelyne%Peroux%NULL%1,                             Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%1,                             Rebecca S.%Karp Leaf%NULL%1,                             Walter H.%Dzik%NULL%1,                             Jonathan C.T.%Carlson%NULL%1,                             Annemarie E.%Fogerty%NULL%1,                             Anem%Waheed%NULL%1,                             Katayoon%Goodarzi%NULL%1,                             Pavan K.%Bendapudi%NULL%1,                             Larissa%Bornikova%NULL%1,                             Shruti%Gupta%NULL%1,                             David E.%Leaf%NULL%1,                             David J.%Kuter%NULL%1,                             Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%1,                             Maxime%Leclerc%NULL%1,                             Camille%Chochois%NULL%1,                             Jean‐Michel%Monsallier%NULL%1,                             Michel%Ramakers%NULL%1,                             Malika%Auvray%NULL%1,                             Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%1,                             Charles%Tacquard%NULL%1,                             François%Severac%NULL%0,                             Ian%Leonard-Lorant%NULL%1,                             Mickaël%Ohana%NULL%0,                             Xavier%Delabranche%NULL%0,                             Hamid%Merdji%NULL%1,                             Raphaël%Clere-Jehl%NULL%1,                             Malika%Schenck%NULL%1,                             Florence%Fagot Gandet%NULL%1,                             Samira%Fafi-Kremer%NULL%0,                             Vincent%Castelain%NULL%1,                             Francis%Schneider%NULL%0,                             Lélia%Grunebaum%NULL%1,                             Eduardo%Anglés-Cano%NULL%1,                             Laurent%Sattler%NULL%1,                             Paul-Michel%Mertes%NULL%0,                             Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%1,                             E.%Cervilla-Muñoz%NULL%1,                             L.%Ordieres-Ortega%NULL%1,                             A.%Parra-Virto%NULL%1,                             M.%Toledano-Macías%NULL%1,                             N.%Toledo-Samaniego%NULL%1,                             A.%García-García%NULL%1,                             I.%García-Fernández-Bravo%NULL%1,                             Z.%Ji%NULL%1,                             J.%de-Miguel-Diez%NULL%1,                             L.A.%Álvarez-Sala-Walther%NULL%1,                             J.%del-Toro-Cervera%NULL%1,                             F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%1,                             Shuo%Chen%NULL%1,                             Xiunan%Li%NULL%1,                             Shi%Liu%NULL%1,                             Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%1,                             Michiel%Coppens%NULL%1,                             Thijs F.%van Haaps%NULL%1,                             Merijn%Foppen%NULL%1,                             Alexander P.%Vlaar%NULL%1,                             Marcella C.A.%Müller%NULL%1,                             Catherine C.S.%Bouman%NULL%1,                             Ludo F.M.%Beenen%NULL%1,                             Ruud S.%Kootte%NULL%1,                             Jarom%Heijmans%NULL%1,                             Loek P.%Smits%NULL%1,                             Peter I.%Bonta%NULL%1,                             Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%1,                             Hippolyte%Monnier%NULL%1,                             Ines%Saab%NULL%1,                             Mickael%Tordjman%NULL%1,                             Hendy%Abdoul%NULL%1,                             Laure%Fournier%NULL%1,                             Olivier%Sanchez%NULL%1,                             Christine%Lorut%NULL%1,                             Guillaume%Chassagnon%NULL%1,                             Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%1,                             Elena M.%Bertinato%NULL%1,                             Simone%Birocchi%NULL%1,                             Carolina%Brizio%NULL%1,                             Daniele%Malavolta%NULL%1,                             Marco%Manzoni%NULL%1,                             Gesualdo%Muscarella%NULL%1,                             Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ian%Leonard-Lorant%NULL%0, Xavier%Delabranche%NULL%3, Xavier%Delabranche%NULL%0, François%Severac%NULL%3, François%Severac%NULL%0, Julie%Helms%NULL%0, Julie%Helms%NULL%0, Coralie%Pauzet%NULL%1, Olivier%Collange%NULL%1, Françis%Schneider%NULL%1, Aissam%Labani%NULL%2, Aissam%Labani%NULL%0, Pascal%Bilbault%NULL%1, Sébastien%Moliere%NULL%2, Sébastien%Moliere%NULL%0, Pierre%Leyendecker%NULL%1, Catherine%Roy%NULL%2, Catherine%Roy%NULL%0, Mickaël%Ohana%mickael.ohana@gmail.com%3, Mickaël%Ohana%mickael.ohana@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>Radiological Society of North America</t>
+  </si>
+  <si>
+    <t>[Franck%Grillet%f1grillet@chu-besancon.fr%0, Julien%Behr%NULL%2, Julien%Behr%NULL%0, Paul%Calame%NULL%1, Sébastien%Aubry%NULL%1, Eric%Delabrousse%NULL%2, Eric%Delabrousse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alban%Gervaise%alban.gervaise@hotmail.fr%0, Caroline%Bouzad%NULL%2, Caroline%Bouzad%NULL%0, Evelyne%Peroux%NULL%1, Carole%Helissey%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients with coronavirus disease 2019 (COVID-19) have elevated D-dimer levels.
+ Early reports describe high venous thromboembolism (VTE) and disseminated intravascular coagulation (DIC) rates, but data are limited.
+ This multicenter retrospective study describes the rate and severity of hemostatic and thrombotic complications of 400 hospital-admitted COVID-19 patients (144 critically ill) primarily receiving standard-dose prophylactic anticoagulation.
+ Coagulation and inflammatory parameters were compared between patients with and without coagulation-associated complications.
+ Multivariable logistic models examined the utility of these markers in predicting coagulation-associated complications, critical illness, and death.
+ The radiographically confirmed VTE rate was 4.8% (95% confidence interval [CI], 2.9-7.3), and the overall thrombotic complication rate was 9.5% (95% CI, 6.8-12.8).
+ The overall and major bleeding rates were 4.8% (95% CI, 2.9-7.3) and 2.3% (95% CI, 1.0-4.2), respectively.
+ In the critically ill, radiographically confirmed VTE and major bleeding rates were 7.6% (95% CI, 3.9-13.3) and 5.6% (95% CI, 2.4-10.7), respectively.
+ Elevated D-dimer at initial presentation was predictive of coagulation-associated complications during hospitalization (D-dimer &amp;gt;2500 ng/mL, adjusted odds ratio [OR] for thrombosis, 6.79 [95% CI, 2.39-19.30]; adjusted OR for bleeding, 3.56 [95% CI, 1.01-12.66]), critical illness, and death.
+ Additional markers at initial presentation predictive of thrombosis during hospitalization included platelet count &amp;gt;450 × 109/L (adjusted OR, 3.56 [95% CI, 1.27-9.97]), C-reactive protein (CRP) &amp;gt;100 mg/L (adjusted OR, 2.71 [95% CI, 1.26-5.86]), and erythrocyte sedimentation rate (ESR) &amp;gt;40 mm/h (adjusted OR, 2.64 [95% CI, 1.07-6.51]).
+ ESR, CRP, fibrinogen, ferritin, and procalcitonin were higher in patients with thrombotic complications than in those without.
+ DIC, clinically relevant thrombocytopenia, and reduced fibrinogen were rare and were associated with significant bleeding manifestations.
+ Given the observed bleeding rates, randomized trials are needed to determine any potential benefit of intensified anticoagulant prophylaxis in COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Hanny%Al-Samkari%NULL%0, Rebecca S.%Karp Leaf%NULL%1, Walter H.%Dzik%NULL%1, Jonathan C.T.%Carlson%NULL%1, Annemarie E.%Fogerty%NULL%1, Anem%Waheed%NULL%1, Katayoon%Goodarzi%NULL%1, Pavan K.%Bendapudi%NULL%1, Larissa%Bornikova%NULL%1, Shruti%Gupta%NULL%1, David E.%Leaf%NULL%1, David J.%Kuter%NULL%1, Rachel P.%Rosovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Society of Hematology</t>
+  </si>
+  <si>
+    <t>[Jean‐François%Llitjos%NULL%0, Maxime%Leclerc%NULL%0, Camille%Chochois%NULL%1, Jean‐Michel%Monsallier%NULL%1, Michel%Ramakers%NULL%0, Malika%Auvray%NULL%1, Karim%Merouani%NULL%1]</t>
+  </si>
+  <si>
+    <t>International Society on Thrombosis and Haemostasis. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Julie%Helms%NULL%0, Charles%Tacquard%NULL%1, François%Severac%NULL%0, Ian%Leonard-Lorant%NULL%0, Mickaël%Ohana%NULL%0, Xavier%Delabranche%NULL%0, Hamid%Merdji%NULL%1, Raphaël%Clere-Jehl%NULL%1, Malika%Schenck%NULL%1, Florence%Fagot Gandet%NULL%1, Samira%Fafi-Kremer%NULL%0, Vincent%Castelain%NULL%0, Francis%Schneider%NULL%0, Lélia%Grunebaum%NULL%1, Eduardo%Anglés-Cano%NULL%1, Laurent%Sattler%NULL%1, Paul-Michel%Mertes%NULL%0, Ferhat%Meziani%Ferhat.Meziani@chru-strasbourg.fr%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[P.%Demelo-Rodríguez%NULL%0, E.%Cervilla-Muñoz%NULL%1, L.%Ordieres-Ortega%NULL%1, A.%Parra-Virto%NULL%1, M.%Toledano-Macías%NULL%1, N.%Toledo-Samaniego%NULL%1, A.%García-García%NULL%1, I.%García-Fernández-Bravo%NULL%1, Z.%Ji%NULL%1, J.%de-Miguel-Diez%NULL%1, L.A.%Álvarez-Sala-Walther%NULL%1, J.%del-Toro-Cervera%NULL%1, F.%Galeano-Valle%paco.galeano.valle@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Songping%Cui%NULL%0, Shuo%Chen%NULL%1, Xiunan%Li%NULL%1, Shi%Liu%NULL%1, Feng%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Saskia%Middeldorp%NULL%0, Michiel%Coppens%NULL%1, Thijs F.%van Haaps%NULL%1, Merijn%Foppen%NULL%1, Alexander P.%Vlaar%NULL%1, Marcella C.A.%Müller%NULL%1, Catherine C.S.%Bouman%NULL%1, Ludo F.M.%Beenen%NULL%1, Ruud S.%Kootte%NULL%1, Jarom%Heijmans%NULL%1, Loek P.%Smits%NULL%1, Peter I.%Bonta%NULL%1, Nick%van Es%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Authors. Journal of Thrombosis and Haemostasis published by ELSEVIER INC. on behalf of International Society on Thrombosis and Haemostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute respiratory distress syndrome development in patients with coronavirus disease 2019 (COVID-19) pneumonia is associated with a high mortality rate and is the main cause of death in patients with severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection [1].
+ Myocardial injury has also been reported to be significantly associated with fatal outcome, with a 37% mortality rate in patients without prior cardiovascular disease but elevated troponin levels [2].
+ A D-dimer level of &amp;gt;1 μg·mL−1 has been clearly identified as a risk factor for poor outcome in SARS-Cov-2 infection [3], with recent reports highlighting a high incidence of thrombotic events in intensive care unit (ICU) patients [4].
+ A normal D-dimer level allows the safe exclusion of pulmonary embolism (PE) in outpatients with a low or intermediate clinical probability of PE, but there is no recommendation to use D-dimer as a positive marker of thrombosis because of lack of specificity.
+</t>
+  </si>
+  <si>
+    <t>[Florian%Bompard%NULL%0, Hippolyte%Monnier%NULL%1, Ines%Saab%NULL%1, Mickael%Tordjman%NULL%1, Hendy%Abdoul%NULL%1, Laure%Fournier%NULL%1, Olivier%Sanchez%NULL%1, Christine%Lorut%NULL%1, Guillaume%Chassagnon%NULL%1, Marie-Pierre%Revel%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
+  </si>
+  <si>
+    <t>[Marco%Cattaneo%NULL%0, Elena M.%Bertinato%NULL%1, Simone%Birocchi%NULL%1, Carolina%Brizio%NULL%1, Daniele%Malavolta%NULL%1, Marco%Manzoni%NULL%1, Gesualdo%Muscarella%NULL%1, Michela%Orlandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>Georg Thieme Verlag KG</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1980,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1846,10 +1992,10 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3">
@@ -1866,7 +2012,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1878,10 +2024,10 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4">
@@ -1895,10 +2041,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1910,10 +2056,10 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5">
@@ -1927,10 +2073,10 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1942,10 +2088,10 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6">
@@ -1956,28 +2102,28 @@
         <v>44026.0</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>353</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>354</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1988,28 +2134,28 @@
         <v>44026.0</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>353</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>354</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -2026,7 +2172,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -2038,10 +2184,10 @@
         <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9">
@@ -2055,10 +2201,10 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -2070,10 +2216,10 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10">
@@ -2090,7 +2236,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
@@ -2102,10 +2248,10 @@
         <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11">
@@ -2122,7 +2268,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -2134,10 +2280,10 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12">
@@ -2154,7 +2300,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -2166,10 +2312,10 @@
         <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13">
@@ -2180,28 +2326,28 @@
         <v>44026.0</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>353</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
         <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>354</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2215,10 +2361,10 @@
         <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>467</v>
       </c>
       <c r="E14" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -2230,10 +2376,10 @@
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15">
@@ -2250,7 +2396,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -2262,10 +2408,10 @@
         <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
